--- a/biology/Botanique/Cerisier_amer/Cerisier_amer.xlsx
+++ b/biology/Botanique/Cerisier_amer/Cerisier_amer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cerisier amer, Prunus emarginata, est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un arbuste que l'on le trouve en Amérique du Nord. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son tronc est mince.
 L'écorce est lisse, de couleur grisâtre ou rougeâtre.
@@ -546,7 +560,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est monoïque, l'arbre portent les fleurs mâles et femelles. Elle peut ainsi s'autoféconder passivement. Cependant, par le biais d'insectes pollinisateurs, un arbre peut aussi être fécondé par un autre individu. 
 L'arbuste utilise la multiplication végétative grâce à des tiges souterraines qui peuvent marcoter.
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Son bois peut être utilisé pour le chauffage. Il peut aussi être sculpté.
 Les fibres de l'écorce peuvent servir à la confection de panier, de cordes.</t>
